--- a/archivos/andina-ACTUALIZADO.xlsx
+++ b/archivos/andina-ACTUALIZADO.xlsx
@@ -2521,7 +2521,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 991,65</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>$ 2.809,83</t>
+          <t>$ 2.479,26</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>$ 2.809,83</t>
+          <t>$ 2.479,26</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.818,10</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>$ 1.818,10</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 909,01</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 512,31</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>$ 805,33</t>
+          <t>$ 927,51</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>$ 479,55</t>
+          <t>$ 633,39</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>$ 696,74</t>
+          <t>$ 687,69</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>$ 678,64</t>
+          <t>$ 746,51</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 2.272,64</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 2.272,64</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 2.272,64</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>$ 313,97</t>
+          <t>$ 330,50</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>$ 313,97</t>
+          <t>$ 330,50</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>$ 904,88</t>
+          <t>$ 1.284,98</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>$ 1.058,73</t>
+          <t>$ 1.173,19</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>$ 814,38</t>
+          <t>$ 1.221,63</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 454,46</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>$ 330,49</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr">
         <is>
-          <t>$ 1.818,09</t>
+          <t>$ 1.652,81</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>$ 1.032,97</t>
+          <t>$ 950,33</t>
         </is>
       </c>
     </row>
@@ -10809,7 +10809,7 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>$ 1.032,97</t>
+          <t>$ 950,33</t>
         </is>
       </c>
     </row>
@@ -10837,7 +10837,7 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>$ 1.032,97</t>
+          <t>$ 950,33</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>$ 2.479,25</t>
+          <t>$ 2.148,68</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 785,04</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 785,04</t>
         </is>
       </c>
     </row>

--- a/archivos/andina-ACTUALIZADO.xlsx
+++ b/archivos/andina-ACTUALIZADO.xlsx
@@ -4201,7 +4201,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>$ 2.809,83</t>
+          <t>$ 2.892,47</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>$ 909,00</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>$ 909,00</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>$ 909,00</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>$ 512,31</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>$ 927,51</t>
+          <t>$ 995,38</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>$ 1.611,49</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>$ 1.611,49</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>$ 181,73</t>
+          <t>$ 198,26</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>$ 181,73</t>
+          <t>$ 198,26</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>$ 1.487,52</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.859,42</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>$ 1.859,42</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>$ 1.284,98</t>
+          <t>$ 1.266,87</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>$ 1.173,19</t>
+          <t>$ 1.085,88</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 380,08</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -11565,7 +11565,7 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>$ 909,00</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -11873,7 +11873,7 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -11901,7 +11901,7 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -11929,7 +11929,7 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -11989,7 +11989,7 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -12337,7 +12337,7 @@
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -13221,7 +13221,7 @@
       <c r="E451" t="inlineStr"/>
       <c r="F451" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
       <c r="E452" t="inlineStr"/>
       <c r="F452" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -13309,7 +13309,7 @@
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15149,7 +15149,7 @@
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15397,7 +15397,7 @@
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15425,7 @@
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15485,7 +15485,7 @@
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15697,7 +15697,7 @@
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15789,7 +15789,7 @@
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15849,7 +15849,7 @@
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -15877,7 +15877,7 @@
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16001,7 +16001,7 @@
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16149,7 +16149,7 @@
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16241,7 +16241,7 @@
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16389,7 +16389,7 @@
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -16737,7 +16737,7 @@
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17117,7 +17117,7 @@
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17145,7 +17145,7 @@
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17173,7 +17173,7 @@
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17457,7 +17457,7 @@
       <c r="E587" t="inlineStr"/>
       <c r="F587" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17517,7 +17517,7 @@
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17765,7 +17765,7 @@
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17825,7 +17825,7 @@
       <c r="E599" t="inlineStr"/>
       <c r="F599" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -17949,7 +17949,7 @@
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -18041,7 +18041,7 @@
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -19089,7 +19089,7 @@
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -19117,7 +19117,7 @@
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -19177,7 +19177,7 @@
       <c r="E642" t="inlineStr"/>
       <c r="F642" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -19397,7 +19397,7 @@
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -19425,7 +19425,7 @@
       <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -19517,7 +19517,7 @@
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -19961,7 +19961,7 @@
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -19989,7 +19989,7 @@
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -20049,7 +20049,7 @@
       <c r="E670" t="inlineStr"/>
       <c r="F670" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       <c r="E672" t="inlineStr"/>
       <c r="F672" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -20229,7 +20229,7 @@
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       <c r="E686" t="inlineStr"/>
       <c r="F686" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -20637,7 +20637,7 @@
       <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -20857,7 +20857,7 @@
       <c r="E696" t="inlineStr"/>
       <c r="F696" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -20917,7 +20917,7 @@
       <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>
@@ -21261,7 +21261,7 @@
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr">
         <is>
-          <t>$ 2610.00</t>
+          <t>Sin precio</t>
         </is>
       </c>
     </row>

--- a/archivos/andina-ACTUALIZADO.xlsx
+++ b/archivos/andina-ACTUALIZADO.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F717"/>
+  <dimension ref="A1:G717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,11 @@
           <t>Nuevo Precio</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Última fecha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,7 +482,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$ 462,72</t>
+          <t>578,43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -505,7 +515,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$ 1.900,74</t>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -533,7 +548,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>1.032,98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-12-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -561,7 +581,12 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$ 1.942,07</t>
+          <t>1.900,74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -589,7 +614,12 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>1.156,94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-01-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -617,7 +647,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>7.851,15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-01-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -645,7 +680,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$ 1.801,57</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-12-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -676,6 +716,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -701,7 +746,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>6.776,77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -732,6 +782,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -757,7 +812,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -785,7 +845,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>3.140,41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -813,7 +878,12 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>1.239,58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -841,7 +911,12 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>1.239,58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -869,7 +944,12 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>3.718,93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -897,7 +977,12 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>2.479,26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -925,7 +1010,12 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.528,84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -956,6 +1046,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-01-09 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -984,6 +1079,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1009,7 +1109,12 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1142,12 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1175,12 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1208,12 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1124,6 +1244,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-12-08 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1149,7 +1274,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$ 611,48</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1307,12 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>297,44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1340,12 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>1.735,45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1373,12 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>528,84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1406,12 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$ 743,72</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1292,6 +1442,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1317,7 +1472,12 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$ 487,52</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1505,12 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1538,12 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$ 495,79</t>
+          <t>553,63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1571,12 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1604,12 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1637,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$ 1.570,16</t>
+          <t>785,08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1670,12 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>909,05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1703,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$ 429,67</t>
+          <t>470,99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1736,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$ 5.123,88</t>
+          <t>8.264,38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1769,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>909,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1802,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>909,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1835,12 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>909,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1868,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>909,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1901,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>909,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1934,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>909,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1967,12 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>909,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1765,7 +2000,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>$ 735,45</t>
+          <t>909,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1796,6 +2036,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1821,7 +2066,12 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.322,23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1852,6 +2102,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1877,7 +2132,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1905,7 +2165,12 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1933,7 +2198,12 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1961,7 +2231,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>1.404,88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1989,7 +2264,12 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.322,23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2297,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.074,30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2048,6 +2333,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2076,6 +2366,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2101,7 +2396,12 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>1.404,88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2429,12 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>$ 2.231,32</t>
+          <t>3.305,70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2462,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>$ 3.553,63</t>
+          <t>5.123,88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2495,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>1.280,90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2528,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>2.479,26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2561,12 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>2.479,26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2594,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.322,23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2627,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>$ 2.396,61</t>
+          <t>2.231,32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2660,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.322,23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2356,6 +2696,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2023-11-03 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2381,7 +2726,12 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>1.032,97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2412,6 +2762,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2440,6 +2795,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2465,7 +2825,12 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>950,33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2858,12 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>950,33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2891,12 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>1.305,70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2924,12 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>826,36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2957,12 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>743,72</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2990,12 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>437,93</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2633,7 +3023,12 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>437,93</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2661,7 +3056,12 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>$ 743,72</t>
+          <t>743,72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2689,7 +3089,12 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>$ 1.399,90</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2717,7 +3122,12 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>1.404,88</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2745,7 +3155,12 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>1.404,88</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2773,7 +3188,12 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>$ 5.785,04</t>
+          <t>5.785,04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2801,7 +3221,12 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>$ 1.628,02</t>
+          <t>1.628,02</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2829,7 +3254,12 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>2.479,26</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2857,7 +3287,12 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>2.479,26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2885,7 +3320,12 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>$ 1.041,24</t>
+          <t>1.123,88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2913,7 +3353,12 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>$ 1.041,24</t>
+          <t>1.123,88</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2941,7 +3386,12 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>$ 2.107,35</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2969,7 +3419,12 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>$ 3.801,57</t>
+          <t>3.718,93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2997,7 +3452,12 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>$ 1.900,74</t>
+          <t>2.148,68</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3485,12 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>$ 1.900,74</t>
+          <t>2.148,68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3518,12 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>537,11</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3551,12 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>826,36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3584,12 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>826,36</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3617,12 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>537,11</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3650,12 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>487,52</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3683,12 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>$ 272,64</t>
+          <t>272,64</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2023-11-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3716,12 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3749,12 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>$ 760,25</t>
+          <t>909,01</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3782,12 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>$ 760,25</t>
+          <t>909,01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3308,6 +3818,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3333,7 +3848,12 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>$ 578,43</t>
+          <t>661,07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3881,12 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>$ 1.570,17</t>
+          <t>1.611,49</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3392,6 +3917,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3420,6 +3950,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3445,7 +3980,12 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>$ 2.066,03</t>
+          <t>2.479,26</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3473,7 +4013,12 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>$ 1.239,58</t>
+          <t>1.231,32</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3504,6 +4049,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3529,7 +4079,12 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.239,58</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3560,6 +4115,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3588,6 +4148,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3616,6 +4181,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3641,7 +4211,12 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>$ 1.900,74</t>
+          <t>2.148,68</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3669,7 +4244,12 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>1.528,84</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3697,7 +4277,12 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>1.528,84</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3725,7 +4310,12 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>1.528,84</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3753,7 +4343,12 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>1.198,26</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3781,7 +4376,12 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3809,7 +4409,12 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3837,7 +4442,12 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>$ 702,40</t>
+          <t>743,71</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3865,7 +4475,12 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>$ 1.198,26</t>
+          <t>1.239,59</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3893,7 +4508,12 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>$ 1.198,26</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3921,7 +4541,12 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>1.074,30</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3949,7 +4574,12 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>1.156,94</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3977,7 +4607,12 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>$ 1.156,94</t>
+          <t>1.305,70</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4640,12 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>1.140,41</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4036,6 +4676,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2023-12-08 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4061,7 +4706,12 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>$ 214,79</t>
+          <t>231,32</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4739,12 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>$ 2.892,48</t>
+          <t>2.892,48</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4772,12 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4805,12 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>3.223,05</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4838,12 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>3.223,05</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4871,12 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>$ 2.892,47</t>
+          <t>3.223,05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4232,6 +4907,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4260,6 +4940,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4285,7 +4970,12 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>950,33</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4313,7 +5003,12 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>1.074,30</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4341,7 +5036,12 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>950,33</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4369,7 +5069,12 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4397,7 +5102,12 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4428,6 +5138,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4453,7 +5168,12 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>$ 760,25</t>
+          <t>809,83</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4481,7 +5201,12 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>1.487,52</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4509,7 +5234,12 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>809,83</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4537,7 +5267,12 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>809,83</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4565,7 +5300,12 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>809,83</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4593,7 +5333,12 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4621,7 +5366,12 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>$ 512,31</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4649,7 +5399,12 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>561,90</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4680,6 +5435,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4705,7 +5465,12 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>561,90</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4736,6 +5501,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4764,6 +5534,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4789,7 +5564,12 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>950,33</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4817,7 +5597,12 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>561,90</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4845,7 +5630,12 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>561,90</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4873,7 +5663,12 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>$ 512,31</t>
+          <t>561,90</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4901,7 +5696,12 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>454,46</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4929,7 +5729,12 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>454,46</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4960,6 +5765,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4985,7 +5795,12 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>454,46</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5828,12 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>454,46</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5861,12 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>454,46</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5894,12 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>$ 2.099,90</t>
+          <t>2.099,90</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5927,12 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>$ 1.818,10</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5128,6 +5963,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5153,7 +5993,12 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>$ 495,79</t>
+          <t>578,43</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5181,7 +6026,12 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>$ 628,02</t>
+          <t>661,07</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5209,7 +6059,12 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>$ 995,38</t>
+          <t>452,19</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5237,7 +6092,12 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>$ 628,01</t>
+          <t>661,07</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5265,7 +6125,12 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>$ 628,01</t>
+          <t>661,07</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5293,7 +6158,12 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>826,36</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5321,7 +6191,12 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>$ 904,88</t>
+          <t>886,79</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5349,7 +6224,12 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>$ 570,04</t>
+          <t>570,05</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5377,7 +6257,12 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>$ 570,04</t>
+          <t>570,05</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5405,7 +6290,12 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>$ 452,40</t>
+          <t>479,55</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5433,7 +6323,12 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>588,14</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5461,7 +6356,12 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>$ 633,39</t>
+          <t>669,59</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5489,7 +6389,12 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>$ 633,39</t>
+          <t>542,89</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5517,7 +6422,12 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>$ 633,39</t>
+          <t>615,29</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5545,7 +6455,12 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>$ 778,19</t>
+          <t>696,74</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5573,7 +6488,12 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>$ 814,39</t>
+          <t>859,63</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5601,7 +6521,12 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>$ 814,39</t>
+          <t>859,63</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5629,7 +6554,12 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>$ 687,69</t>
+          <t>678,64</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5657,7 +6587,12 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>$ 1.611,48</t>
+          <t>1.611,48</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5685,7 +6620,12 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>1.322,23</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5713,7 +6653,12 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>$ 1.570,16</t>
+          <t>1.818,09</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5741,7 +6686,12 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>$ 2.355,29</t>
+          <t>2.975,12</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5769,7 +6719,12 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>$ 2.313,97</t>
+          <t>2.727,19</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5797,7 +6752,12 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>$ 3.470,99</t>
+          <t>4.198,26</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5825,7 +6785,12 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>$ 3.470,90</t>
+          <t>3.718,92</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5853,7 +6818,12 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>$ 5.289,17</t>
+          <t>6.115,61</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5881,7 +6851,12 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>$ 3.470,90</t>
+          <t>3.718,92</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5909,7 +6884,12 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.818,09</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5937,7 +6917,12 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>$ 1.363,55</t>
+          <t>1.818,09</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5965,7 +6950,12 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>$ 1.239,58</t>
+          <t>1.553,63</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5993,7 +6983,12 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>$ 1.363,55</t>
+          <t>1.818,09</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6021,7 +7016,12 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>$ 537,11</t>
+          <t>578,43</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6049,7 +7049,12 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>1.446,19</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6077,7 +7082,12 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>$ 1.611,49</t>
+          <t>1.900,74</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6105,7 +7115,12 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>$ 1.611,49</t>
+          <t>1.900,74</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6133,7 +7148,12 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>1.446,19</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6161,7 +7181,12 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>$ 892,48</t>
+          <t>942,07</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6189,7 +7214,12 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>$ 892,48</t>
+          <t>942,07</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6217,7 +7247,12 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>$ 983,38</t>
+          <t>1.032,97</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6245,7 +7280,12 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>537,10</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6273,7 +7313,12 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>537,10</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6304,6 +7349,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6329,7 +7379,12 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>$ 3.718,92</t>
+          <t>3.470,99</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6357,7 +7412,12 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>$ 909,01</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6385,7 +7445,12 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>$ 1.156,94</t>
+          <t>1.231,32</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6413,7 +7478,12 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>$ 983,38</t>
+          <t>1.032,97</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6441,7 +7511,12 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>148,68</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6469,7 +7544,12 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>$ 165,20</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6497,7 +7577,12 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>$ 165,21</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6525,7 +7610,12 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>$ 165,21</t>
+          <t>165,21</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6553,7 +7643,12 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>$ 165,21</t>
+          <t>165,21</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6581,7 +7676,12 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>$ 198,26</t>
+          <t>206,53</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6609,7 +7709,12 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>$ 198,26</t>
+          <t>206,53</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6637,7 +7742,12 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>$ 214,79</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6665,7 +7775,12 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>$ 495,78</t>
+          <t>537,10</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6693,7 +7808,12 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>$ 746,51</t>
+          <t>859,64</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6721,7 +7841,12 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>231,32</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6749,7 +7874,12 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>$ 293,30</t>
+          <t>413,14</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6777,7 +7907,12 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>239,57</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6805,7 +7940,12 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>2.644,55</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6833,7 +7973,12 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>2.644,55</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6861,7 +8006,12 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>2.644,55</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6889,7 +8039,12 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>2.644,55</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6917,7 +8072,12 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>$ 760,24</t>
+          <t>793,31</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6945,7 +8105,12 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>$ 727,27</t>
+          <t>793,31</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6973,7 +8138,12 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>$ 760,24</t>
+          <t>793,31</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7001,7 +8171,12 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>$ 760,24</t>
+          <t>793,31</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7029,7 +8204,12 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>$ 2.727,19</t>
+          <t>3.305,70</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7057,7 +8237,12 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>$ 1.900,74</t>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7085,7 +8270,12 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>$ 1.900,74</t>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7113,7 +8303,12 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>$ 1.404,88</t>
+          <t>1.570,17</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7141,7 +8336,12 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7169,7 +8369,12 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>$ 1.322,23</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7197,7 +8402,12 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>$ 652,81</t>
+          <t>743,71</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7225,7 +8435,12 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>1.322,23</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7253,7 +8468,12 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>1.322,23</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7284,6 +8504,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>2024-01-03 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7312,6 +8537,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7337,7 +8567,12 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>$ 892,48</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7365,7 +8600,12 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7393,7 +8633,12 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>520,58</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7421,7 +8666,12 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>$ 669,34</t>
+          <t>785,04</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7449,7 +8699,12 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>$ 1.299,90</t>
+          <t>1.299,90</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>2023-11-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7477,7 +8732,12 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>$ 710,66</t>
+          <t>826,36</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7505,7 +8765,12 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>$ 380,08</t>
+          <t>413,14</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7533,7 +8798,12 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>$ 1.280,91</t>
+          <t>1.553,63</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7561,7 +8831,12 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>$ 2.388,34</t>
+          <t>2.975,12</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7589,7 +8864,12 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>$ 1.280,91</t>
+          <t>1.553,63</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7617,7 +8897,12 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>$ 520,57</t>
+          <t>561,90</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7645,7 +8930,12 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>429,67</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>2023-12-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7673,7 +8963,12 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>$ 1.570,16</t>
+          <t>1.570,16</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7701,7 +8996,12 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>$ 247,85</t>
+          <t>272,64</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7729,7 +9029,12 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>$ 247,85</t>
+          <t>272,64</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7757,7 +9062,12 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>$ 396,61</t>
+          <t>437,93</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7788,6 +9098,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7813,7 +9128,12 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7841,7 +9161,12 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>$ 2.272,64</t>
+          <t>2.272,64</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2023-10-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7869,7 +9194,12 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>$ 2.272,64</t>
+          <t>2.272,64</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7897,7 +9227,12 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>$ 2.272,64</t>
+          <t>2.272,64</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7925,7 +9260,12 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>$ 3.057,77</t>
+          <t>2.975,12</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7953,7 +9293,12 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>$ 1.115,62</t>
+          <t>1.115,62</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -7981,7 +9326,12 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>1.652,81</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8009,7 +9359,12 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>991,73</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8037,7 +9392,12 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>1.148,68</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8068,6 +9428,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8096,6 +9461,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2023-12-20 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8121,7 +9491,12 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>$ 2.727,19</t>
+          <t>2.975,12</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8149,7 +9524,12 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>$ 1.363,55</t>
+          <t>1.487,52</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8177,7 +9557,12 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>$ 2.396,61</t>
+          <t>2.107,36</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8205,7 +9590,12 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>$ 330,50</t>
+          <t>396,61</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8233,7 +9623,12 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>$ 371,82</t>
+          <t>437,93</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8261,7 +9656,12 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>$ 371,82</t>
+          <t>437,93</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8289,7 +9689,12 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>$ 330,50</t>
+          <t>396,61</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8317,7 +9722,12 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>$ 495,78</t>
+          <t>661,07</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8345,7 +9755,12 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>$ 1.859,42</t>
+          <t>2.066,03</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8373,7 +9788,12 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>$ 1.859,42</t>
+          <t>2.066,03</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8401,7 +9821,12 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>$ 1.266,87</t>
+          <t>1.429,77</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8429,7 +9854,12 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>$ 1.085,88</t>
+          <t>1.239,73</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8457,7 +9887,12 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>$ 1.221,63</t>
+          <t>1.330,23</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8485,7 +9920,12 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>437,93</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8513,7 +9953,12 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>1.198,26</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8541,7 +9986,12 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>$ 429,66</t>
+          <t>454,46</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8569,7 +10019,12 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>$ 1.239,58</t>
+          <t>1.231,32</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8597,7 +10052,12 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
-          <t>$ 1.057,76</t>
+          <t>1.016,44</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8625,7 +10085,12 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>$ 396,61</t>
+          <t>437,93</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8653,7 +10118,12 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>495,79</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8681,7 +10151,12 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8709,7 +10184,12 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>$ 330,49</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8737,7 +10217,12 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>$ 2.313,96</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8765,7 +10250,12 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>$ 1.239,59</t>
+          <t>1.239,59</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8793,7 +10283,12 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>$ 446,20</t>
+          <t>652,81</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8821,7 +10316,12 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>$ 2.479,25</t>
+          <t>2.479,25</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8849,7 +10349,12 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>$ 1.570,16</t>
+          <t>1.570,16</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8877,7 +10382,12 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>$ 446,20</t>
+          <t>652,81</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8905,7 +10415,12 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>$ 578,43</t>
+          <t>826,36</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8933,7 +10448,12 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>413,14</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8961,7 +10481,12 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>785,04</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -8989,7 +10514,12 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>$ 1.818,09</t>
+          <t>1.818,09</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9017,7 +10547,12 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>603,22</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9045,7 +10580,12 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>$ 454,46</t>
+          <t>603,22</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9073,7 +10613,12 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9104,6 +10649,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9132,6 +10682,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9157,7 +10712,12 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>$ 380,08</t>
+          <t>413,14</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9188,6 +10748,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9213,7 +10778,12 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>$ 619,75</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9244,6 +10814,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9269,7 +10844,12 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>$ 437,93</t>
+          <t>479,26</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9297,7 +10877,12 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>479,26</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9325,7 +10910,12 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>$ 1.349,90</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9353,7 +10943,12 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>$ 1.239,90</t>
+          <t>1.239,90</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9381,7 +10976,12 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>$ 999,90</t>
+          <t>999,90</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9409,7 +11009,12 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>$ 1.299,90</t>
+          <t>1.299,90</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9437,7 +11042,12 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>$ 1.049,90</t>
+          <t>1.049,90</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9465,7 +11075,12 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>$ 1.099,90</t>
+          <t>1.099,90</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9493,7 +11108,12 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>$ 1.199,90</t>
+          <t>1.199,90</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9521,7 +11141,12 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>1.446,20</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9549,7 +11174,12 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>3.718,92</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9577,7 +11207,12 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>3.140,41</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9605,7 +11240,12 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>$ 2.479,26</t>
+          <t>3.140,41</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9636,6 +11276,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9661,7 +11306,12 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>$ 2.892,48</t>
+          <t>2.892,48</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9689,7 +11339,12 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>$ 4.834,62</t>
+          <t>4.834,63</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9720,6 +11375,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9745,7 +11405,12 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>$ 710,66</t>
+          <t>793,30</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9776,6 +11441,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9801,7 +11471,12 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.528,84</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9829,7 +11504,12 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.528,84</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9857,7 +11537,12 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9885,7 +11570,12 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9916,6 +11606,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9941,7 +11636,12 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9969,7 +11669,12 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -9997,7 +11702,12 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>$ 991,65</t>
+          <t>1.156,94</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10025,7 +11735,12 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>$ 2.809,83</t>
+          <t>4.297,44</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>2024-01-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10053,7 +11768,12 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>$ 859,42</t>
+          <t>859,42</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10081,7 +11801,12 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>$ 859,42</t>
+          <t>859,42</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10109,7 +11834,12 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>$ 661,07</t>
+          <t>1.239,59</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10140,6 +11870,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10168,6 +11903,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10193,7 +11933,12 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>1.074,29</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10221,7 +11966,12 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>$ 537,11</t>
+          <t>710,66</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10249,7 +11999,12 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>$ 413,14</t>
+          <t>Sin precio</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10277,7 +12032,12 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t>$ 1.983,38</t>
+          <t>2.066,03</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10305,7 +12065,12 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>$ 743,72</t>
+          <t>826,36</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10333,7 +12098,12 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>$ 1.156,94</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10361,7 +12131,12 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10389,7 +12164,12 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10417,7 +12197,12 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>1.570,17</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10445,7 +12230,12 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>$ 661,07</t>
+          <t>619,75</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10473,7 +12263,12 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>$ 619,75</t>
+          <t>727,19</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10501,7 +12296,12 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>$ 520,57</t>
+          <t>520,58</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10529,7 +12329,12 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Sin precio</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10557,7 +12362,12 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>$ 578,43</t>
+          <t>702,39</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10585,7 +12395,12 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>$ 520,57</t>
+          <t>628,01</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10613,7 +12428,12 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>2.396,61</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10641,7 +12461,12 @@
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr">
         <is>
-          <t>$ 925,53</t>
+          <t>1.074,29</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10669,7 +12494,12 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr">
         <is>
-          <t>$ 578,43</t>
+          <t>702,39</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10697,7 +12527,12 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr">
         <is>
-          <t>$ 1.652,81</t>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10725,7 +12560,12 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr">
         <is>
-          <t>$ 2.066,03</t>
+          <t>2.231,40</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10753,7 +12593,12 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
         <is>
-          <t>$ 1.239,58</t>
+          <t>1.322,23</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>2023-12-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10781,7 +12626,12 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>1.074,30</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10809,7 +12659,12 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>1.074,30</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10837,7 +12692,12 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>1.074,30</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10865,7 +12725,12 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>$ 1.032,97</t>
+          <t>1.074,30</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10893,7 +12758,12 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
-          <t>$ 1.032,97</t>
+          <t>1.074,30</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10921,7 +12791,12 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>$ 2.148,68</t>
+          <t>2.313,97</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10949,7 +12824,12 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>$ 2.247,85</t>
+          <t>2.644,55</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -10977,7 +12857,12 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr">
         <is>
-          <t>$ 2.247,85</t>
+          <t>2.644,55</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11005,7 +12890,12 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>$ 2.247,85</t>
+          <t>2.644,55</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11033,7 +12923,12 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr">
         <is>
-          <t>$ 2.247,85</t>
+          <t>2.644,55</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11061,7 +12956,12 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr">
         <is>
-          <t>$ 1.983,39</t>
+          <t>2.148,67</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11089,7 +12989,12 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>1.057,76</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11117,7 +13022,12 @@
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr">
         <is>
-          <t>$ 950,33</t>
+          <t>1.057,76</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11145,7 +13055,12 @@
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>$ 1.619,75</t>
+          <t>1.776,78</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11173,7 +13088,12 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>950,33</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11201,7 +13121,12 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr">
         <is>
-          <t>$ 785,04</t>
+          <t>950,33</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11229,7 +13154,12 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>$ 1.074,29</t>
+          <t>1.156,94</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>2023-11-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11257,7 +13187,12 @@
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
         <is>
-          <t>$ 2.396,61</t>
+          <t>3.470,99</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11285,7 +13220,12 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>$ 1.570,16</t>
+          <t>1.818,10</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11313,7 +13253,12 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
-          <t>$ 1.074,30</t>
+          <t>1.140,41</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11344,6 +13289,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>2024-01-03 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -11369,7 +13319,12 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>$ 1.983,39</t>
+          <t>2.396,61</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11397,7 +13352,12 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>$ 2.561,90</t>
+          <t>2.975,12</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11425,7 +13385,12 @@
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>$ 801,57</t>
+          <t>1.049,50</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11453,7 +13418,12 @@
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>$ 1.404,87</t>
+          <t>1.553,64</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>2024-01-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11481,7 +13451,12 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr">
         <is>
-          <t>$ 801,57</t>
+          <t>1.049,50</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11509,7 +13484,12 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr">
         <is>
-          <t>$ 1.487,52</t>
+          <t>1.917,27</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11537,7 +13517,12 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr">
         <is>
-          <t>$ 826,36</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11565,7 +13550,12 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>$ 909,00</t>
+          <t>991,65</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11593,7 +13583,12 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr">
         <is>
-          <t>$ 2.066,03</t>
+          <t>2.396,61</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11625,7 +13620,12 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>$ 764.40</t>
+          <t>764.40</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11656,6 +13656,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11685,7 +13690,12 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>$ 1255.80</t>
+          <t>2090.00</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11717,7 +13727,12 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>$ 354.90</t>
+          <t>2100.00</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11749,7 +13764,12 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>$ 728.00</t>
+          <t>1200.00</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11781,7 +13801,12 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>$ 728.00</t>
+          <t>1320.00</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11813,7 +13838,12 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>$ 919.10</t>
+          <t>1890.00</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11845,7 +13875,12 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>$ 873.60</t>
+          <t>1450.00</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11876,6 +13911,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11904,6 +13944,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11932,6 +13977,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11961,7 +14011,12 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>$ 899.00</t>
+          <t>1090.00</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -11992,6 +14047,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -12021,7 +14081,12 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>$ 3770.00</t>
+          <t>5200.00</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12053,7 +14118,12 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12085,7 +14155,12 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12117,7 +14192,12 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12149,7 +14229,12 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12181,7 +14266,12 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12213,7 +14303,12 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12245,7 +14340,12 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>$ 1715.00</t>
+          <t>1957.50</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12277,7 +14377,12 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>$ 1715.00</t>
+          <t>1957.50</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12309,7 +14414,12 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>$ 932.00</t>
+          <t>974.70</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12340,6 +14450,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -12369,7 +14484,12 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>$ 1715.00</t>
+          <t>1957.50</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12401,7 +14521,12 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>$ 1715.00</t>
+          <t>1957.50</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12433,7 +14558,12 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>$ 1715.00</t>
+          <t>1957.50</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12465,7 +14595,12 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>$ 1715.00</t>
+          <t>1957.50</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12496,6 +14631,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -12524,6 +14664,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12553,7 +14698,12 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12585,7 +14735,12 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12617,7 +14772,12 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12649,7 +14809,12 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12681,7 +14846,12 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12713,7 +14883,12 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12745,7 +14920,12 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>$ 1790.00</t>
+          <t>1790.00</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12777,7 +14957,12 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12809,7 +14994,12 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12841,7 +15031,12 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12873,7 +15068,12 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>$ 1350.00</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12905,7 +15105,12 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>$ 2160.00</t>
+          <t>2160.00</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12937,7 +15142,12 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -12969,7 +15179,12 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13001,7 +15216,12 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13033,7 +15253,12 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13065,7 +15290,12 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13097,7 +15327,12 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13129,7 +15364,12 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13161,7 +15401,12 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>$ 1820.00</t>
+          <t>1820.00</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13193,7 +15438,12 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>$ 1820.00</t>
+          <t>1820.00</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13224,6 +15474,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -13252,6 +15507,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -13281,7 +15541,12 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>$ 1820.00</t>
+          <t>1820.00</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13312,6 +15577,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -13341,7 +15611,12 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>$ 709.80</t>
+          <t>1700.00</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13373,7 +15648,12 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>$ 709.80</t>
+          <t>1700.00</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13405,7 +15685,12 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13437,7 +15722,12 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13469,7 +15759,12 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13501,7 +15796,12 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13533,7 +15833,12 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13565,7 +15870,12 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13596,6 +15906,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -13625,7 +15940,12 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13657,7 +15977,12 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13689,7 +16014,12 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13721,7 +16051,12 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13753,7 +16088,12 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13785,7 +16125,12 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>$ 2403.00</t>
+          <t>2646.00</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13817,7 +16162,12 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13849,7 +16199,12 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13881,7 +16236,12 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13913,7 +16273,12 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13945,7 +16310,12 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -13977,7 +16347,12 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14009,7 +16384,12 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>$ 1390.00</t>
+          <t>1390.00</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14041,7 +16421,12 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>$ 1390.00</t>
+          <t>1390.00</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14073,7 +16458,12 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>$ 1390.00</t>
+          <t>1390.00</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14105,7 +16495,12 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>$ 1390.00</t>
+          <t>1390.00</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14137,7 +16532,12 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>$ 1390.00</t>
+          <t>1390.00</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14169,7 +16569,12 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>$ 1390.00</t>
+          <t>1390.00</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14201,7 +16606,12 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14233,7 +16643,12 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14265,7 +16680,12 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14297,7 +16717,12 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14329,7 +16754,12 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14361,7 +16791,12 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14393,7 +16828,12 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14425,7 +16865,12 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14457,7 +16902,12 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14489,7 +16939,12 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14521,7 +16976,12 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14553,7 +17013,12 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14585,7 +17050,12 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14617,7 +17087,12 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14649,7 +17124,12 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14681,7 +17161,12 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14713,7 +17198,12 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14745,7 +17235,12 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>$ 1755.00</t>
+          <t>1875.15</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14776,6 +17271,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -14805,7 +17305,12 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>$ 897.00</t>
+          <t>897.00</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14836,6 +17341,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -14865,7 +17375,12 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>$ 880.00</t>
+          <t>880.00</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14897,7 +17412,12 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>$ 1490.00</t>
+          <t>1490.00</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14929,7 +17449,12 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>$ 339.57</t>
+          <t>339.57</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14961,7 +17486,12 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>$ 693.00</t>
+          <t>693.00</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -14993,7 +17523,12 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>$ 1286.67</t>
+          <t>1286.67</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15025,7 +17560,12 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>$ 642.18</t>
+          <t>642.18</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15057,7 +17597,12 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>$ 515.13</t>
+          <t>515.13</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15089,7 +17634,12 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>$ 10920.00</t>
+          <t>10920.00</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15121,7 +17671,12 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>$ 19600.00</t>
+          <t>19600.00</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15152,6 +17707,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -15181,7 +17741,12 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>$ 803.88</t>
+          <t>803.88</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15213,7 +17778,12 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>$ 975.00</t>
+          <t>1100.00</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15245,7 +17815,12 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>$ 562.38</t>
+          <t>562.38</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15277,7 +17852,12 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>$ 1330.00</t>
+          <t>1330.00</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15309,7 +17889,12 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>$ 756.00</t>
+          <t>756.00</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15341,7 +17926,12 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>$ 973.70</t>
+          <t>973.70</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15372,6 +17962,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -15400,6 +17995,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2024-01-03 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -15428,6 +18028,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -15457,7 +18062,12 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>$ 0.00</t>
+          <t>1200.00</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15488,6 +18098,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -15516,6 +18131,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -15545,7 +18165,12 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>$ 2100.00</t>
+          <t>2100.00</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15577,7 +18202,12 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>$ 673.40</t>
+          <t>2250.00</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15608,6 +18238,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -15637,7 +18272,12 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>$ 1820.00</t>
+          <t>1820.00</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15669,7 +18309,12 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>$ 1750.00</t>
+          <t>2040.00</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15700,6 +18345,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -15729,7 +18379,12 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>$ 218.40</t>
+          <t>218.40</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15761,7 +18416,12 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>$ 418.60</t>
+          <t>418.60</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15792,6 +18452,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -15821,7 +18486,12 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>$ 798.00</t>
+          <t>798.00</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15852,6 +18522,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -15880,6 +18555,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -15909,7 +18589,12 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>$ 1680.00</t>
+          <t>2200.00</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15941,7 +18626,12 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>$ 886.34</t>
+          <t>3090.00</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -15973,7 +18663,12 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>$ 600.60</t>
+          <t>1700.00</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16004,6 +18699,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -16033,7 +18733,12 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>$ 1030.00</t>
+          <t>1150.00</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16065,7 +18770,12 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>$ 1030.00</t>
+          <t>1030.00</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16096,6 +18806,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -16124,6 +18839,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -16152,6 +18872,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -16181,7 +18906,12 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>$ 820.00</t>
+          <t>820.00</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16213,7 +18943,12 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>$ 870.00</t>
+          <t>870.00</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16244,6 +18979,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -16273,7 +19013,12 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>$ 840.00</t>
+          <t>840.00</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16304,6 +19049,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -16333,7 +19083,12 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>$ 1270.00</t>
+          <t>1270.00</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16364,6 +19119,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -16392,6 +19152,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -16421,7 +19186,12 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16453,7 +19223,12 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16485,7 +19260,12 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16517,7 +19297,12 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>$ 2565.00</t>
+          <t>2744.55</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16549,7 +19334,12 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>$ 870.00</t>
+          <t>999.00</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16581,7 +19371,12 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>$ 471.00</t>
+          <t>530.00</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16613,7 +19408,12 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>$ 189.00</t>
+          <t>230.00</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16645,7 +19445,12 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>$ 275.00</t>
+          <t>275.00</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16677,7 +19482,12 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>$ 218.40</t>
+          <t>890.00</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16709,7 +19519,12 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>$ 886.00</t>
+          <t>970.00</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16740,6 +19555,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -16769,7 +19589,12 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>$ 1106.00</t>
+          <t>1110.00</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16801,7 +19626,12 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>$ 358.00</t>
+          <t>358.00</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16833,7 +19663,12 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>$ 434.00</t>
+          <t>440.00</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16865,7 +19700,12 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>$ 471.00</t>
+          <t>490.00</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16897,7 +19737,12 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>$ 473.00</t>
+          <t>740.00</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16929,7 +19774,12 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>$ 400.40</t>
+          <t>600.00</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16961,7 +19811,12 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>$ 1078.00</t>
+          <t>1510.00</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -16993,7 +19848,12 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>$ 546.00</t>
+          <t>390.00</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17025,7 +19885,12 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>$ 2520.00</t>
+          <t>2520.00</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17057,7 +19922,12 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>$ 1577.96</t>
+          <t>1577.96</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17089,7 +19959,12 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>$ 1450.22</t>
+          <t>1450.22</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17120,6 +19995,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -17148,6 +20028,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -17176,6 +20061,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -17205,7 +20095,12 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>$ 3380.00</t>
+          <t>4990.00</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17237,7 +20132,12 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>$ 2500.00</t>
+          <t>3200.00</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17269,7 +20169,12 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>$ 3392.00</t>
+          <t>3200.00</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17301,7 +20206,12 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>$ 673.40</t>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17333,7 +20243,12 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>$ 0.00</t>
+          <t>1690.00</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17365,7 +20280,12 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>$ 436.80</t>
+          <t>436.80</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17397,7 +20317,12 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>$ 1764.00</t>
+          <t>1950.00</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17429,7 +20354,12 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>$ 664.30</t>
+          <t>1030.00</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17460,6 +20390,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -17489,7 +20424,12 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>$ 540.00</t>
+          <t>540.00</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17520,6 +20460,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -17549,7 +20494,12 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>$ 1386.00</t>
+          <t>1386.00</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17581,7 +20531,12 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>$ 624.00</t>
+          <t>800.00</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17613,7 +20568,12 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>$ 711.00</t>
+          <t>890.00</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17645,7 +20605,12 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>$ 336.70</t>
+          <t>790.00</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17677,7 +20642,12 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>$ 1492.40</t>
+          <t>2300.00</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17709,7 +20679,12 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>$ 994.00</t>
+          <t>1190.00</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17740,6 +20715,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -17768,6 +20748,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -17797,7 +20782,12 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>$ 1400.00</t>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17828,6 +20818,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -17857,7 +20852,12 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>$ 966.00</t>
+          <t>966.00</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17889,7 +20889,12 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>$ 567.00</t>
+          <t>567.00</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17921,7 +20926,12 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>$ 508.00</t>
+          <t>599.00</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -17952,6 +20962,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -17981,7 +20996,12 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>$ 400.40</t>
+          <t>400.40</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18013,7 +21033,12 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>$ 1050.00</t>
+          <t>1050.00</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18044,6 +21069,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -18073,7 +21103,12 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>$ 18690.00</t>
+          <t>18690.00</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18104,6 +21139,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -18133,7 +21173,12 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>$ 455.00</t>
+          <t>1200.00</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18165,7 +21210,12 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>$ 484.12</t>
+          <t>800.00</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18197,7 +21247,12 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>$ 418.60</t>
+          <t>418.60</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18229,7 +21284,12 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>$ 418.60</t>
+          <t>418.60</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18261,7 +21321,12 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>$ 418.60</t>
+          <t>418.60</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18293,7 +21358,12 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>$ 770.00</t>
+          <t>800.00</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>2024-01-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18325,7 +21395,12 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>$ 566.00</t>
+          <t>690.00</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18357,7 +21432,12 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>$ 566.00</t>
+          <t>690.00</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18389,7 +21469,12 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>$ 566.00</t>
+          <t>690.00</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18421,7 +21506,12 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>$ 341.00</t>
+          <t>430.00</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18453,7 +21543,12 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>$ 566.00</t>
+          <t>690.00</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18485,7 +21580,12 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>$ 566.00</t>
+          <t>690.00</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18517,7 +21617,12 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>$ 334.00</t>
+          <t>430.00</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18549,7 +21654,12 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>$ 334.00</t>
+          <t>430.00</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18581,7 +21691,12 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>$ 566.00</t>
+          <t>690.00</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18613,7 +21728,12 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>$ 566.00</t>
+          <t>690.00</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18645,7 +21765,12 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>$ 2450.00</t>
+          <t>2450.00</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18677,7 +21802,12 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>$ 3250.00</t>
+          <t>3999.00</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18709,7 +21839,12 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>$ 427.70</t>
+          <t>427.70</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18741,7 +21876,12 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>$ 1183.00</t>
+          <t>2700.00</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18773,7 +21913,12 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>$ 1128.40</t>
+          <t>1128.40</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18805,7 +21950,12 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>$ 1365.00</t>
+          <t>1365.00</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18837,7 +21987,12 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>$ 1890.00</t>
+          <t>1890.00</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18869,7 +22024,12 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>$ 5670.00</t>
+          <t>5670.00</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18901,7 +22061,12 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>$ 429.00</t>
+          <t>510.40</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18933,7 +22098,12 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>$ 1885.00</t>
+          <t>1885.00</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18965,7 +22135,12 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>$ 2580.00</t>
+          <t>2580.00</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -18997,7 +22172,12 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>$ 2580.00</t>
+          <t>2580.00</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19029,7 +22209,12 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>$ 2580.00</t>
+          <t>2580.00</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19061,7 +22246,12 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>$ 1680.00</t>
+          <t>1680.00</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19092,6 +22282,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -19120,6 +22315,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -19149,7 +22349,12 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>$ 1041.04</t>
+          <t>1041.04</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19180,6 +22385,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -19209,7 +22419,12 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>$ 402.22</t>
+          <t>790.00</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19241,7 +22456,12 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>$ 924.00</t>
+          <t>1290.00</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19273,7 +22493,12 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>$ 1477.00</t>
+          <t>1477.00</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19305,7 +22530,12 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>$ 1050.00</t>
+          <t>1050.00</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19337,7 +22567,12 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>$ 1286.60</t>
+          <t>1286.60</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19369,7 +22604,12 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>$ 2907.80</t>
+          <t>2907.80</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19400,6 +22640,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -19428,6 +22673,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -19457,7 +22707,12 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>$ 4060.00</t>
+          <t>3300.00</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19489,7 +22744,12 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>$ 810.00</t>
+          <t>970.00</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19520,6 +22780,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -19549,7 +22814,12 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>$ 1512.00</t>
+          <t>1630.00</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19581,7 +22851,12 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>$ 418.60</t>
+          <t>418.60</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19613,7 +22888,12 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>$ 1150.00</t>
+          <t>1150.00</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19645,7 +22925,12 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>$ 345.80</t>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19677,7 +22962,12 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>$ 700.00</t>
+          <t>850.00</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19709,7 +22999,12 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>$ 400.40</t>
+          <t>1009.00</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19741,7 +23036,12 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>$ 579.00</t>
+          <t>774.40</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19773,7 +23073,12 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>$ 837.20</t>
+          <t>837.20</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19805,7 +23110,12 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>$ 709.80</t>
+          <t>1700.00</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19837,7 +23147,12 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>$ 336.00</t>
+          <t>336.00</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19869,7 +23184,12 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>$ 462.00</t>
+          <t>462.00</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19901,7 +23221,12 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>$ 362.00</t>
+          <t>362.00</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19933,7 +23258,12 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>$ 254.00</t>
+          <t>254.00</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -19964,6 +23294,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -19992,6 +23327,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -20021,7 +23361,12 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>$ 1037.00</t>
+          <t>1037.00</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20052,6 +23397,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -20080,6 +23430,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -20108,6 +23463,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -20137,7 +23497,12 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>$ 0.00</t>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20169,7 +23534,12 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>$ 582.00</t>
+          <t>582.00</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20201,7 +23571,12 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>$ 527.80</t>
+          <t>527.80</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20232,6 +23607,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -20261,7 +23641,12 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>$ 1698.19</t>
+          <t>1698.19</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20293,7 +23678,12 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>$ 236.60</t>
+          <t>236.60</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>2023-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20325,7 +23715,12 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>$ 1190.00</t>
+          <t>1190.00</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>2023-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20357,7 +23752,12 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>$ 1638.00</t>
+          <t>1638.00</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20389,7 +23789,12 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>$ 1862.00</t>
+          <t>1862.00</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20421,7 +23826,12 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>$ 3304.00</t>
+          <t>3304.00</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20453,7 +23863,12 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>$ 2065.00</t>
+          <t>2065.00</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20485,7 +23900,12 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>$ 1617.00</t>
+          <t>1617.00</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20517,7 +23937,12 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>$ 1341.20</t>
+          <t>1341.20</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20548,6 +23973,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -20577,7 +24007,12 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>$ 1100.00</t>
+          <t>1100.00</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20609,7 +24044,12 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>$ 1246.00</t>
+          <t>1246.00</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20640,6 +24080,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -20669,7 +24114,12 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>$ 4550.00</t>
+          <t>4550.00</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20701,7 +24151,12 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>$ 795.00</t>
+          <t>795.00</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20733,7 +24188,12 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>$ 826.00</t>
+          <t>826.00</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20765,7 +24225,12 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>$ 1470.00</t>
+          <t>1470.00</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20797,7 +24262,12 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>$ 3913.00</t>
+          <t>3913.00</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20829,7 +24299,12 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>$ 1160.00</t>
+          <t>1620.00</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20860,6 +24335,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -20889,7 +24369,12 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>$ 1176.00</t>
+          <t>1176.00</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20920,6 +24405,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -20949,7 +24439,12 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>$ 910.00</t>
+          <t>910.00</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -20981,7 +24476,12 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>$ 1274.00</t>
+          <t>1274.00</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21013,7 +24513,12 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>$ 1550.00</t>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>2023-12-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21044,6 +24549,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -21073,7 +24583,12 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>$ 1146.60</t>
+          <t>1146.60</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21105,7 +24620,12 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>$ 1092.00</t>
+          <t>1520.00</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21137,7 +24657,12 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>$ 1419.60</t>
+          <t>1999.00</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21169,7 +24694,12 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>$ 946.40</t>
+          <t>1350.00</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21201,7 +24731,12 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>$ 944.00</t>
+          <t>1108.80</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21233,7 +24768,12 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>$ 1356.00</t>
+          <t>1566.40</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21264,6 +24804,11 @@
           <t>Sin precio</t>
         </is>
       </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -21293,7 +24838,12 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>$ 2289.00</t>
+          <t>2692.80</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21325,7 +24875,12 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>$ 280.00</t>
+          <t>280.00</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21357,7 +24912,12 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>$ 121.94</t>
+          <t>121.94</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21389,7 +24949,12 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>$ 798.00</t>
+          <t>900.00</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21421,7 +24986,12 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>$ 980.00</t>
+          <t>980.00</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21453,7 +25023,12 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>$ 382.20</t>
+          <t>382.20</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21485,7 +25060,12 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>$ 427.70</t>
+          <t>427.70</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -21517,7 +25097,12 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>$ 594.00</t>
+          <t>1200.00</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>2023-12-29 00:00:00</t>
         </is>
       </c>
     </row>
